--- a/Test/LanguageTest/Excels/lang.xlsx
+++ b/Test/LanguageTest/Excels/lang.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity-Learn\My-Packages\Assets\SC-Course-Basic\Test\LanguageTest\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BD5029-E468-4420-A87E-2C97D1AEE71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BDB020-F44A-49F4-A50A-16BA11E05DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
